--- a/資料/設計/トレーサビリティマトリックス/トレーサビリティマトリックスv0.5 - コピー.xlsx
+++ b/資料/設計/トレーサビリティマトリックス/トレーサビリティマトリックスv0.5 - コピー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.Kitchen_Timer\資料\設計\トレーサビリティマトリックス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E92E5B-C027-470D-BDA9-70B14F070335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF68D5A-20C3-48B4-9273-C0DB51AEAB84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="28800" windowHeight="13800" xr2:uid="{464D59CE-B44E-4DED-82F5-EB005D7FC360}"/>
+    <workbookView xWindow="-13980" yWindow="2880" windowWidth="28800" windowHeight="13800" xr2:uid="{464D59CE-B44E-4DED-82F5-EB005D7FC360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>キッチンタイマー トレーサビリティマトリックス</t>
     <phoneticPr fontId="1"/>
@@ -339,10 +339,6 @@
   </si>
   <si>
     <t>InputClass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CountClass</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -578,12 +574,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PushMinuteLong</t>
-  </si>
-  <si>
-    <t>PushSecondLong</t>
-  </si>
-  <si>
     <t>SetCountMinute</t>
   </si>
   <si>
@@ -644,6 +634,31 @@
   </si>
   <si>
     <t>detectResetSwitch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProcessClass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間設定</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセット処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detectLongPushedSW</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1089,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1330,6 +1345,60 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
@@ -1381,64 +1450,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
@@ -1760,13 +1808,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B08FE2B-DDF5-43CC-BDB8-0291030CDF18}">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1775,11 +1823,17 @@
     <col min="2" max="2" width="3.875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.25" style="22" customWidth="1"/>
+    <col min="12" max="13" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.25" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.25" style="22" customWidth="1"/>
+    <col min="17" max="23" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="30" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -1787,20 +1841,20 @@
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
     </row>
-    <row r="2" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1813,28 +1867,31 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="2"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
-      <c r="AA2" s="3"/>
-    </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="99"/>
-      <c r="B3" s="97" t="s">
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="87"/>
+      <c r="B3" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="102" t="s">
-        <v>41</v>
+      <c r="E3" s="90" t="s">
+        <v>40</v>
       </c>
       <c r="F3" s="53"/>
       <c r="G3" s="14"/>
@@ -1850,199 +1907,214 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="113"/>
-    </row>
-    <row r="4" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="100"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="84"/>
+    </row>
+    <row r="4" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="88"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="18"/>
+      <c r="J4" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="115"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="55"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="54"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="110" t="s">
+      <c r="V4" s="54"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="79"/>
+    </row>
+    <row r="5" spans="1:30" s="22" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="88"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="24"/>
+    </row>
+    <row r="6" spans="1:30" ht="119.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="89"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="103"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="101"/>
+      <c r="S6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="99"/>
+      <c r="V6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="79"/>
-    </row>
-    <row r="5" spans="1:27" ht="104.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="101"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="24" t="s">
+      <c r="AA6" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="81"/>
-      <c r="S5" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="U5" s="107"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="X5" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="71"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="74"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="71"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="32" t="s">
-        <v>42</v>
-      </c>
+      <c r="C8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="29" t="s">
-        <v>24</v>
-      </c>
+      <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
@@ -2051,90 +2123,101 @@
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="47"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="74"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="74"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="47"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="72"/>
       <c r="Y10" s="73"/>
       <c r="Z10" s="73"/>
-      <c r="AA10" s="74"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
+    </row>
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="32" t="s">
-        <v>44</v>
-      </c>
+      <c r="C11" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="31"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -2142,9 +2225,7 @@
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
-      <c r="L11" s="29" t="s">
-        <v>24</v>
-      </c>
+      <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
@@ -2152,90 +2233,101 @@
       <c r="Q11" s="29"/>
       <c r="R11" s="29"/>
       <c r="S11" s="29"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="47"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="74"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="74"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="47"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="72"/>
       <c r="Y13" s="73"/>
       <c r="Z13" s="73"/>
-      <c r="AA13" s="74"/>
-    </row>
-    <row r="14" spans="1:27" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="74"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="32" t="s">
-        <v>15</v>
-      </c>
+      <c r="C14" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="31"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -2251,206 +2343,220 @@
       <c r="Q14" s="29"/>
       <c r="R14" s="29"/>
       <c r="S14" s="29"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="47"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="74"/>
+    </row>
+    <row r="15" spans="1:30" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="74"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="C15" s="43"/>
+      <c r="D15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="47"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="47"/>
-    </row>
-    <row r="17" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="9" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="74"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="47"/>
+    </row>
+    <row r="18" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="10"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26" t="s">
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="50"/>
-    </row>
-    <row r="18" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="50"/>
+    </row>
+    <row r="19" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="34" t="s">
+      <c r="B19" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="71"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="74"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="71"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="40" t="s">
-        <v>21</v>
-      </c>
+      <c r="C20" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="31"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="29" t="s">
-        <v>24</v>
-      </c>
+      <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="29" t="s">
-        <v>24</v>
-      </c>
+      <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
@@ -2459,615 +2565,709 @@
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="47"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="74"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30" t="s">
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="74"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="47"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="72"/>
       <c r="Y22" s="73"/>
       <c r="Z22" s="73"/>
-      <c r="AA22" s="74"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="74"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="21"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="40" t="s">
+      <c r="C23" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="74"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29" t="s">
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29" t="s">
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="47"/>
-    </row>
-    <row r="24" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="44" t="s">
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="47"/>
+    </row>
+    <row r="25" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="5"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26" t="s">
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="50"/>
-    </row>
-    <row r="25" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="50"/>
+    </row>
+    <row r="26" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="71"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="47"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B26" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="71"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27" t="s">
+      <c r="C27" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="45"/>
       <c r="Y27" s="46"/>
       <c r="Z27" s="46"/>
-      <c r="AA27" s="47"/>
-    </row>
-    <row r="28" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="47"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="50"/>
-    </row>
-    <row r="29" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="47"/>
+    </row>
+    <row r="29" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="50"/>
+    </row>
+    <row r="30" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
         <v>4</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34" t="s">
+      <c r="B30" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34" t="s">
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="71"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z30" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA30" s="47"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="71"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="21"/>
-      <c r="C31" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
+      <c r="C31" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="45"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="46"/>
-      <c r="AA31" s="47" t="s">
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC31" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD31" s="47"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="5"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z32" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA32" s="50"/>
-    </row>
-    <row r="33" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="4">
+    <row r="33" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="5"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD33" s="50"/>
+    </row>
+    <row r="34" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
         <v>5</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B34" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34" t="s">
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="70"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="71"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="61" t="s">
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="71"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="T34" s="36" t="s">
+      <c r="W35" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="U34" s="45"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="47"/>
-    </row>
-    <row r="35" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26" t="s">
+      <c r="X35" s="45"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="47"/>
+    </row>
+    <row r="36" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="4"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="63"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="50"/>
-    </row>
-    <row r="36" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="56" t="s">
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="50"/>
+    </row>
+    <row r="37" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="70"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="71"/>
-    </row>
-    <row r="37" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="5">
+      <c r="C37" s="64"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="70"/>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="70"/>
+      <c r="AD37" s="71"/>
+    </row>
+    <row r="38" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
         <v>6</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="65" t="s">
+      <c r="B38" s="60"/>
+      <c r="C38" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26" t="s">
+      <c r="D38" s="66"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26" t="s">
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="50"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B6:D6"/>
+  <mergeCells count="19">
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="X3:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3142,15 +3342,15 @@
         <v>44022</v>
       </c>
       <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -3158,15 +3358,15 @@
         <v>44025</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/資料/設計/トレーサビリティマトリックス/トレーサビリティマトリックスv0.5 - コピー.xlsx
+++ b/資料/設計/トレーサビリティマトリックス/トレーサビリティマトリックスv0.5 - コピー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.Kitchen_Timer\資料\設計\トレーサビリティマトリックス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF68D5A-20C3-48B4-9273-C0DB51AEAB84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB839A8-103B-4ED0-B155-030163E56931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13980" yWindow="2880" windowWidth="28800" windowHeight="13800" xr2:uid="{464D59CE-B44E-4DED-82F5-EB005D7FC360}"/>
+    <workbookView xWindow="6180" yWindow="4305" windowWidth="28800" windowHeight="13800" xr2:uid="{464D59CE-B44E-4DED-82F5-EB005D7FC360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
   <si>
     <t>キッチンタイマー トレーサビリティマトリックス</t>
     <phoneticPr fontId="1"/>
@@ -335,10 +335,6 @@
     <rPh sb="6" eb="8">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>InputClass</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -574,12 +570,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SetCountMinute</t>
-  </si>
-  <si>
-    <t>SetCountSecond</t>
-  </si>
-  <si>
     <t>ReleaseNotification</t>
   </si>
   <si>
@@ -633,14 +623,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>detectResetSwitch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ProcessClass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カウント時間設定</t>
     <rPh sb="4" eb="6">
       <t>ジカン</t>
@@ -659,6 +641,33 @@
   </si>
   <si>
     <t>detectLongPushedSW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateSWState</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detectResetSW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウン終了</t>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CountClass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetSecondCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetMinuteCount</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1104,7 +1113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,6 +1357,54 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
@@ -1381,12 +1438,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
@@ -1402,91 +1453,55 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
@@ -1811,10 +1826,10 @@
   <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1845,16 +1860,16 @@
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1880,18 +1895,18 @@
       <c r="AD2" s="3"/>
     </row>
     <row r="3" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="87"/>
-      <c r="B3" s="122" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="90" t="s">
-        <v>40</v>
+      <c r="E3" s="106" t="s">
+        <v>39</v>
       </c>
       <c r="F3" s="53"/>
       <c r="G3" s="14"/>
@@ -1911,167 +1926,169 @@
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="15"/>
-      <c r="X3" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="84"/>
+      <c r="X3" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="100"/>
     </row>
     <row r="4" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="88"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92" t="s">
-        <v>36</v>
+      <c r="A4" s="104"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="122" t="s">
+        <v>75</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="115"/>
+      <c r="J4" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="81"/>
       <c r="L4" s="51"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="100" t="s">
-        <v>37</v>
+      <c r="R4" s="115" t="s">
+        <v>36</v>
       </c>
       <c r="S4" s="55"/>
       <c r="T4" s="19"/>
-      <c r="U4" s="98" t="s">
-        <v>38</v>
+      <c r="U4" s="112" t="s">
+        <v>37</v>
       </c>
       <c r="V4" s="54"/>
       <c r="W4" s="20"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="81" t="s">
-        <v>46</v>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="97" t="s">
+        <v>45</v>
       </c>
       <c r="AD4" s="79"/>
     </row>
     <row r="5" spans="1:30" s="22" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="88"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="80"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="120" t="s">
-        <v>77</v>
+      <c r="J5" s="128"/>
+      <c r="K5" s="118" t="s">
+        <v>72</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="N5" s="125" t="s">
+        <v>77</v>
+      </c>
       <c r="O5" s="23"/>
-      <c r="P5" s="125" t="s">
-        <v>78</v>
+      <c r="P5" s="120" t="s">
+        <v>73</v>
       </c>
       <c r="Q5" s="23"/>
-      <c r="R5" s="118"/>
+      <c r="R5" s="116"/>
       <c r="S5" s="23"/>
       <c r="T5" s="24"/>
-      <c r="U5" s="119"/>
+      <c r="U5" s="113"/>
       <c r="V5" s="23"/>
       <c r="W5" s="25"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="97"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="111"/>
       <c r="Z5" s="76"/>
       <c r="AA5" s="76"/>
       <c r="AB5" s="25"/>
-      <c r="AC5" s="82"/>
+      <c r="AC5" s="98"/>
       <c r="AD5" s="24"/>
     </row>
     <row r="6" spans="1:30" ht="119.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="89"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="127" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="129"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="23" t="s">
+      <c r="N6" s="126"/>
+      <c r="O6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="R6" s="117"/>
+      <c r="S6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23" t="s">
+      <c r="T6" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="23" t="s">
+      <c r="U6" s="114"/>
+      <c r="V6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="101"/>
-      <c r="S6" s="23" t="s">
+      <c r="W6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="X6" s="109"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="77" t="s">
         <v>69</v>
-      </c>
-      <c r="U6" s="99"/>
-      <c r="V6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="W6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA6" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="77" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
         <v>24</v>
@@ -2140,7 +2157,7 @@
       <c r="B9" s="21"/>
       <c r="C9" s="43"/>
       <c r="D9" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -2166,7 +2183,7 @@
       <c r="X9" s="45"/>
       <c r="Y9" s="46"/>
       <c r="Z9" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA9" s="46"/>
       <c r="AB9" s="46"/>
@@ -2178,7 +2195,7 @@
       <c r="B10" s="21"/>
       <c r="C10" s="57"/>
       <c r="D10" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -2215,7 +2232,7 @@
       <c r="A11" s="6"/>
       <c r="B11" s="21"/>
       <c r="C11" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="29"/>
@@ -2250,7 +2267,7 @@
       <c r="B12" s="21"/>
       <c r="C12" s="43"/>
       <c r="D12" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -2277,7 +2294,7 @@
       <c r="Y12" s="46"/>
       <c r="Z12" s="46"/>
       <c r="AA12" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB12" s="46"/>
       <c r="AC12" s="46"/>
@@ -2288,7 +2305,7 @@
       <c r="B13" s="21"/>
       <c r="C13" s="57"/>
       <c r="D13" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -2386,7 +2403,7 @@
       <c r="Z15" s="46"/>
       <c r="AA15" s="46"/>
       <c r="AB15" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC15" s="46"/>
       <c r="AD15" s="47"/>
@@ -2426,7 +2443,7 @@
       <c r="Z16" s="73"/>
       <c r="AA16" s="73"/>
       <c r="AB16" s="73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC16" s="73"/>
       <c r="AD16" s="74"/>
@@ -2435,7 +2452,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="21"/>
       <c r="C17" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="29"/>
@@ -2508,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2768,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2875,7 +2892,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="60"/>
       <c r="C29" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="26"/>
@@ -2912,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2951,7 +2968,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="21"/>
       <c r="C31" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -2978,10 +2995,10 @@
       <c r="Z31" s="46"/>
       <c r="AA31" s="46"/>
       <c r="AB31" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC31" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD31" s="47"/>
     </row>
@@ -2989,7 +3006,7 @@
       <c r="A32" s="4"/>
       <c r="B32" s="21"/>
       <c r="C32" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="62"/>
       <c r="E32" s="27"/>
@@ -3025,7 +3042,7 @@
       <c r="A33" s="5"/>
       <c r="B33" s="60"/>
       <c r="C33" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="26"/>
@@ -3052,10 +3069,10 @@
       <c r="Z33" s="49"/>
       <c r="AA33" s="49"/>
       <c r="AB33" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC33" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD33" s="50"/>
     </row>
@@ -3141,7 +3158,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="60"/>
       <c r="C36" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="63"/>
       <c r="E36" s="26"/>
@@ -3248,13 +3265,7 @@
       <c r="AD38" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
+  <mergeCells count="20">
     <mergeCell ref="AC4:AC6"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="Z4:AB4"/>
@@ -3268,6 +3279,13 @@
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="P5:P6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3342,15 +3360,15 @@
         <v>44022</v>
       </c>
       <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
         <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -3358,15 +3376,15 @@
         <v>44025</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
